--- a/Results/Research question 3/Research question 3.xlsx
+++ b/Results/Research question 3/Research question 3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SELAB\Desktop\SiHyeon\MicroDVI\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SELAB\Desktop\SiHyeon\MicroDVI\Results\Research question 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22872" windowHeight="9360" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22872" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="JPetStore2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="363">
   <si>
     <t>Components</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1124,6 +1124,18 @@
   </si>
   <si>
     <t>alpha=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1475,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3238,7 +3250,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3254,7 +3266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3262,7 +3274,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3270,12 +3282,37 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="array" ref="C86">(SUM(IF((C$2:C$74&lt;&gt;"") * ($B$2:$B$74 = C$2:C$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.86904761904761907</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="array" ref="D86">(SUM(IF((D$2:D$74&lt;&gt;"") * ($B$2:$B$74 = D$2:D$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="array" ref="E86">(SUM(IF((E$2:E$74&lt;&gt;"") * ($B$2:$B$74 = E$2:E$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="array" ref="F86">(SUM(IF((F$2:F$74&lt;&gt;"") * ($B$2:$B$74 = F$2:F$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="array" ref="G86">(SUM(IF((G$2:G$74&lt;&gt;"") * ($B$2:$B$74 = G$2:G$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.76190476190476186</v>
       </c>
     </row>
   </sheetData>
@@ -3286,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4590,6 +4627,31 @@
         <v>86</v>
       </c>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="array" ref="C61">(SUM(IF((C$2:C$54&lt;&gt;"") * ($B$2:$B$54 = C$2:C$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.88135593220338981</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="array" ref="D61">(SUM(IF((D$2:D$54&lt;&gt;"") * ($B$2:$B$54 = D$2:D$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="array" ref="E61">(SUM(IF((E$2:E$54&lt;&gt;"") * ($B$2:$B$54 = E$2:E$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="array" ref="F61">(SUM(IF((F$2:F$54&lt;&gt;"") * ($B$2:$B$54 = F$2:F$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="array" ref="G61">(SUM(IF((G$2:G$54&lt;&gt;"") * ($B$2:$B$54 = G$2:G$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4598,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5368,6 +5430,27 @@
         <v>87</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="array" ref="C46">(SUM(IF((C$2:C$33&lt;&gt;"") * ($B$2:$B$33 = C$2:C$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="array" ref="D46">(SUM(IF((D$2:D$33&lt;&gt;"") * ($B$2:$B$33 = D$2:D$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="array" ref="E46">(SUM(IF((E$2:E$33&lt;&gt;"") * ($B$2:$B$33 = E$2:E$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="array" ref="F46">(SUM(IF((F$2:F$33&lt;&gt;"") * ($B$2:$B$33 = F$2:F$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5376,10 +5459,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6279,6 +6362,31 @@
         <v>86</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="array" ref="C41">(SUM(IF((C$2:C$38&lt;&gt;"") * ($B$2:$B$38 = C$2:C$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="array" ref="D41">(SUM(IF((D$2:D$38&lt;&gt;"") * ($B$2:$B$38 = D$2:D$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="array" ref="E41">(SUM(IF((E$2:E$38&lt;&gt;"") * ($B$2:$B$38 = E$2:E$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="array" ref="F41">(SUM(IF((F$2:F$38&lt;&gt;"") * ($B$2:$B$38 = F$2:F$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="array" ref="G41">(SUM(IF((G$2:G$38&lt;&gt;"") * ($B$2:$B$38 = G$2:G$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6287,10 +6395,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9939,7 +10047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -9947,7 +10055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>333</v>
       </c>
@@ -9955,7 +10063,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -9963,7 +10071,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -9971,7 +10079,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -9979,7 +10087,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>337</v>
       </c>
@@ -9987,7 +10095,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>338</v>
       </c>
@@ -9995,7 +10103,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>339</v>
       </c>
@@ -10003,7 +10111,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>340</v>
       </c>
@@ -10011,7 +10119,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>341</v>
       </c>
@@ -10019,7 +10127,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>342</v>
       </c>
@@ -10027,7 +10135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -10035,13 +10143,43 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>344</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B174" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="array" ref="C174">(SUM(IF((C$2:C$131&lt;&gt;"") * ($B$2:$B$131 = C$2:C$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="array" ref="D174">(SUM(IF((D$2:D$131&lt;&gt;"") * ($B$2:$B$131 = D$2:D$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="E174" s="1">
+        <f t="array" ref="E174">(SUM(IF((E$2:E$131&lt;&gt;"") * ($B$2:$B$131 = E$2:E$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.67441860465116277</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="array" ref="F174">(SUM(IF((F$2:F$131&lt;&gt;"") * ($B$2:$B$131 = F$2:F$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.72674418604651159</v>
+      </c>
+      <c r="G174" s="1">
+        <f t="array" ref="G174">(SUM(IF((G$2:G$131&lt;&gt;"") * ($B$2:$B$131 = G$2:G$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.76162790697674421</v>
+      </c>
+      <c r="H174" s="1">
+        <f t="array" ref="H174">(SUM(IF((H$2:H$131&lt;&gt;"") * ($B$2:$B$131 = H$2:H$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.70930232558139539</v>
+      </c>
+      <c r="I174" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
